--- a/dataset/internet_speed_vs_download_time_1gb.xlsx
+++ b/dataset/internet_speed_vs_download_time_1gb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jisbi\OneDrive\Desktop\flask_internet_speed_prediction\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB4B0BD8-359D-44FE-89BE-54F3EA201E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E579870-7409-4473-9D17-1879466DFDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Internet Speed (Mbps)</t>
   </si>
   <si>
-    <t>Download Time (1GB) (Seconds)</t>
+    <t>Download Time (Seconds)</t>
   </si>
 </sst>
 </file>
@@ -84,10 +84,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,82 +399,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>800</v>
+      <c r="B3" s="2">
+        <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>400</v>
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4800</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>160</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3200</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>40</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>500</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>75</v>
+      </c>
+      <c r="B22">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>100</v>
+      </c>
+      <c r="B27">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>120</v>
+      </c>
+      <c r="B28">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>250</v>
+      </c>
+      <c r="B31">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>350</v>
+      </c>
+      <c r="B33">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>400</v>
+      </c>
+      <c r="B34">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>450</v>
+      </c>
+      <c r="B35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>500</v>
+      </c>
+      <c r="B36">
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
